--- a/forms/warehouse/inventory_excel.xlsx
+++ b/forms/warehouse/inventory_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>NO</t>
   </si>
@@ -50,13 +50,13 @@
     <t>LAST INVENTORY</t>
   </si>
   <si>
-    <t>METAL LABEL - MLBL ENERGIZER COR PVCD LR6N</t>
+    <t>LR6(GD)2BCX(F)B - MAXELL SEVEN LR6 2B</t>
   </si>
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>10-2020</t>
+    <t>12-2020</t>
   </si>
   <si>
     <t>DETAILS</t>
@@ -74,18 +74,21 @@
     <t>COMPANY</t>
   </si>
   <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>MT-20-02377</t>
-  </si>
-  <si>
-    <t>[21]
-MANUF.ISU</t>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>[80]
+MANUF.FIN</t>
   </si>
   <si>
     <t>100001 - PT FDK
 INDONESIA PLANT</t>
+  </si>
+  <si>
+    <t>0016386-LR6C1NC-1</t>
   </si>
 </sst>
 </file>
@@ -471,15 +474,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,12 +518,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1231128</v>
+        <v>23051</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -533,25 +536,25 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>10000</v>
+        <v>248000</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>100000</v>
+        <v>240000</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -567,9 +570,12 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -599,16 +605,22 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>23051</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1693061</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -617,14 +629,17 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>8000</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>90000</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4">
-        <v>10000</v>
+        <v>248000</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
